--- a/medicine/Psychotrope/H.M_Sampoerna/H.M_Sampoerna.xlsx
+++ b/medicine/Psychotrope/H.M_Sampoerna/H.M_Sampoerna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 PT Hanjaya Mandala Sampoerna Tbk. (IDX: HMSP) est une société indonésienne du tabac. Sampoerna est l'une des plus grandes sociétés de tabac indonésien, devant Bentoel Group et Nojorono[réf. souhaitée]. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle produit des cigarettes aux clous de girofle de type kreteks. Sa marque la plus populaire est Sampoerna 'A' Doux, une cigarette à filtre en papier blanc. Sampoerna a réalisé en 2006 des ventes nettes de 29 550 000 000 000 rupiah (environ 3.22bn $ en utilisant le taux de change de février 2008) résultant du bénéfice net 3 530 000 000 000 rupiah[réf. souhaitée].
 </t>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mai 2005, Philip Morris International, à cette époque, une filiale du groupe Altria, a finalisé l'acquisition de 97,95 % de la société[2]. Sampoerna a réalisé en 2006 des ventes nettes de 29 550 000 000 000 rupiah (environ 3.22 bn en utilisant le taux de change de février 2008) résultant du bénéfice net 3 530 000 000 000 rupiah. Un bloc d'environ 40 % des actions en circulation a été vendu par la famille Sampoerna, en particulier par Putera Sampoerna, et d'autres initiés dans une transaction négociée et les actions restantes ont été achetées dans une offre publique d'achat. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2005, Philip Morris International, à cette époque, une filiale du groupe Altria, a finalisé l'acquisition de 97,95 % de la société. Sampoerna a réalisé en 2006 des ventes nettes de 29 550 000 000 000 rupiah (environ 3.22 bn en utilisant le taux de change de février 2008) résultant du bénéfice net 3 530 000 000 000 rupiah. Un bloc d'environ 40 % des actions en circulation a été vendu par la famille Sampoerna, en particulier par Putera Sampoerna, et d'autres initiés dans une transaction négociée et les actions restantes ont été achetées dans une offre publique d'achat. 
 </t>
         </is>
       </c>
